--- a/resources/项目信息（煤矸石）.xlsx
+++ b/resources/项目信息（煤矸石）.xlsx
@@ -1,44 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaohu/PycharmProjects/report_builder_Beta3.0/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="500" windowWidth="27480" windowHeight="17500"/>
+    <workbookView windowWidth="27320" windowHeight="13400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
   <si>
+    <t>序号</t>
+  </si>
+  <si>
     <t>表号</t>
   </si>
   <si>
@@ -57,6 +39,9 @@
     <t>型号</t>
   </si>
   <si>
+    <t>制造单位</t>
+  </si>
+  <si>
     <t>户名</t>
   </si>
   <si>
@@ -99,6 +84,12 @@
     <t>报告日期</t>
   </si>
   <si>
+    <t>外观照片路径</t>
+  </si>
+  <si>
+    <t>现场照片路径</t>
+  </si>
+  <si>
     <t>WD</t>
   </si>
   <si>
@@ -138,6 +129,9 @@
     <t>Ic</t>
   </si>
   <si>
+    <t>相位角A</t>
+  </si>
+  <si>
     <t>相位角B</t>
   </si>
   <si>
@@ -147,6 +141,15 @@
     <t>功率因数</t>
   </si>
   <si>
+    <t>有功无功A</t>
+  </si>
+  <si>
+    <t>有功无功B</t>
+  </si>
+  <si>
+    <t>有功无功C</t>
+  </si>
+  <si>
     <t>误差1</t>
   </si>
   <si>
@@ -199,6 +202,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -206,7 +216,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>×</t>
     </r>
@@ -234,6 +244,9 @@
     <t>2022年4月7日</t>
   </si>
   <si>
+    <t>resources/001.jpg</t>
+  </si>
+  <si>
     <t>+5.43/+3.07</t>
   </si>
   <si>
@@ -316,60 +329,25 @@
   </si>
   <si>
     <t>+7.14/+6.36</t>
-  </si>
-  <si>
-    <t>制造单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相位角A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有功无功A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有功无功B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有功无功C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外观照片路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现场照片路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <rPh sb="0" eb="1">
-      <t>xu'hao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources/001.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="\+0.00;\-0.00;0"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="\+0.000;\-0.000;0"/>
-    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ h:mm:ss"/>
-    <numFmt numFmtId="180" formatCode="\+0;\-0;0"/>
-    <numFmt numFmtId="181" formatCode="\+0.00;\-0.00;\+0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="10">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="\+0;\-0;0"/>
+    <numFmt numFmtId="178" formatCode="\+0.00;\-0.00;\+0"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="\+0.000;\-0.000;0"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="\+0.00;\-0.00;0"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,27 +357,156 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,8 +537,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -439,13 +732,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,105 +990,146 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF00B050"/>
-      <color rgb="FF92D050"/>
-      <color rgb="FFFF0000"/>
-      <color rgb="FFFFFF00"/>
-      <color rgb="FF000000"/>
+      <color rgb="0000B050"/>
+      <color rgb="0092D050"/>
+      <color rgb="00FF0000"/>
+      <color rgb="00FFFF00"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -840,211 +1416,212 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X4" sqref="X4"/>
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.8365384615385" customWidth="1"/>
+    <col min="3" max="3" width="32.1634615384615" customWidth="1"/>
+    <col min="4" max="4" width="34.3365384615385" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="7" width="23.1640625" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="6" max="7" width="23.1634615384615" customWidth="1"/>
+    <col min="8" max="8" width="21.6634615384615" customWidth="1"/>
     <col min="9" max="9" width="33" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="12" width="20.33203125" customWidth="1"/>
+    <col min="11" max="12" width="20.3365384615385" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" customWidth="1"/>
+    <col min="15" max="15" width="17.1634615384615" customWidth="1"/>
     <col min="19" max="20" width="9" style="1"/>
     <col min="21" max="22" width="9" style="2"/>
-    <col min="23" max="23" width="29.83203125" customWidth="1"/>
-    <col min="24" max="24" width="44.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="29.8365384615385" customWidth="1"/>
+    <col min="24" max="24" width="44.1634615384615" style="1" customWidth="1"/>
     <col min="25" max="25" width="13" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.1640625" style="1" customWidth="1"/>
-    <col min="27" max="30" width="8.83203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.1634615384615" style="1" customWidth="1"/>
+    <col min="27" max="30" width="8.83653846153846" style="1" customWidth="1"/>
     <col min="31" max="31" width="11.5" customWidth="1"/>
-    <col min="32" max="32" width="9.1640625" customWidth="1"/>
-    <col min="38" max="38" width="8.83203125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="9.16346153846154" customWidth="1"/>
+    <col min="38" max="38" width="8.83653846153846" style="3" customWidth="1"/>
     <col min="39" max="39" width="7.5" style="3" customWidth="1"/>
-    <col min="40" max="40" width="7.33203125" style="3" customWidth="1"/>
+    <col min="40" max="40" width="7.33653846153846" style="3" customWidth="1"/>
     <col min="41" max="41" width="9" style="4"/>
     <col min="42" max="42" width="16" style="2" customWidth="1"/>
-    <col min="43" max="43" width="13.6640625" style="2" customWidth="1"/>
-    <col min="44" max="44" width="14.6640625" style="2" customWidth="1"/>
+    <col min="43" max="43" width="13.6634615384615" style="2" customWidth="1"/>
+    <col min="44" max="44" width="14.6634615384615" style="2" customWidth="1"/>
     <col min="45" max="47" width="9" style="5"/>
-    <col min="48" max="48" width="11.33203125" style="6" customWidth="1"/>
+    <col min="48" max="48" width="11.3365384615385" style="6" customWidth="1"/>
     <col min="49" max="49" width="23" customWidth="1"/>
-    <col min="50" max="50" width="25.83203125" customWidth="1"/>
-    <col min="51" max="51" width="19.1640625" style="7" customWidth="1"/>
+    <col min="50" max="50" width="25.8365384615385" customWidth="1"/>
+    <col min="51" max="51" width="19.1634615384615" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:51">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>86</v>
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="Y1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="Z1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AA1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AE1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AF1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AG1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ1" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="16" t="s">
+      <c r="AK1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AT1" s="16" t="s">
+      <c r="AL1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AU1" s="16" t="s">
+      <c r="AM1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AV1" s="17" t="s">
+      <c r="AN1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AW1" s="18" t="s">
+      <c r="AO1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AX1" s="18" t="s">
+      <c r="AP1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AY1" s="22" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>42</v>
       </c>
+      <c r="AR1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="25" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="41" customHeight="1" spans="1:51">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1052,90 +1629,90 @@
         <v>94827706</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M2">
         <v>15048680168</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R2">
         <v>50000</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2" s="10">
         <v>14</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2" s="10">
         <v>30</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="X2" s="28" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="Y2" s="1">
         <v>3766.25</v>
       </c>
       <c r="Z2" s="1">
-        <v>1258.4000000000001</v>
+        <v>1258.4</v>
       </c>
       <c r="AA2" s="1">
         <v>1412.873</v>
       </c>
       <c r="AB2" s="1">
-        <v>1094.9760000000001</v>
+        <v>1094.976</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AD2" s="1">
         <v>3</v>
       </c>
-      <c r="AE2" s="13" t="str">
+      <c r="AE2" s="15" t="str">
         <f t="shared" ref="AE2:AE7" si="0">TEXT(IF(COUNTIF(Z2:AC2,"&gt;0")&gt;0,ROUND(ABS(Y2-SUM(Z2:AC2)),AD2),"/"),"0.000")</f>
         <v>0.001</v>
       </c>
@@ -1170,40 +1747,40 @@
         <v>0.91</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AS2" s="5">
-        <v>9.2999999999999999E-2</v>
+        <v>0.093</v>
       </c>
       <c r="AT2" s="5">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="AU2" s="19">
+        <v>0.051</v>
+      </c>
+      <c r="AU2" s="22">
         <f t="shared" ref="AU2:AU7" si="1">ROUND(AVERAGE(AS2:AT2),3)</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="AV2" s="20">
+        <v>0.072</v>
+      </c>
+      <c r="AV2" s="23">
         <f t="shared" ref="AV2:AV7" si="2">IF(MOD(AVERAGE(AU2)/0.02,1)=0.5,IF(MOD(INT(AVERAGE(AU2)/0.02),2)=0,INT(AVERAGE(AU2)/0.02)*0.02,(INT(AVERAGE(AU2)/0.02)+1)*0.02),ROUND(AVERAGE(AU2)/0.02,0)*0.02)</f>
         <v>0.08</v>
       </c>
-      <c r="AW2" s="21">
-        <v>44623.448703703703</v>
-      </c>
-      <c r="AX2" s="21">
-        <v>44623.449143518497</v>
-      </c>
-      <c r="AY2" s="23">
+      <c r="AW2" s="26">
+        <v>44623.4487037037</v>
+      </c>
+      <c r="AX2" s="26">
+        <v>44623.4491435185</v>
+      </c>
+      <c r="AY2" s="27">
         <f t="shared" ref="AY2:AY7" si="3">ROUND((AX2-AW2)*24*60*60,0)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="3" ht="17" spans="1:51">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1211,90 +1788,90 @@
         <v>94827708</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M3">
         <v>15048680168</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R3">
         <v>50000</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="10">
         <v>14</v>
       </c>
       <c r="T3" s="1">
         <v>30</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W3" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="X3" s="28" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="Y3" s="1">
         <v>3766.44</v>
       </c>
       <c r="Z3" s="1">
-        <v>1258.5609999999999</v>
+        <v>1258.561</v>
       </c>
       <c r="AA3" s="1">
-        <v>1412.7729999999999</v>
+        <v>1412.773</v>
       </c>
       <c r="AB3" s="1">
         <v>1095.106</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AD3" s="1">
         <v>3</v>
       </c>
-      <c r="AE3" s="13" t="str">
+      <c r="AE3" s="15" t="str">
         <f t="shared" si="0"/>
         <v>0.000</v>
       </c>
@@ -1329,40 +1906,40 @@
         <v>0.91</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="AS3" s="5">
         <v>0.128</v>
       </c>
       <c r="AT3" s="5">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="AU3" s="19">
+        <v>0.132</v>
+      </c>
+      <c r="AU3" s="22">
         <f t="shared" si="1"/>
         <v>0.13</v>
       </c>
-      <c r="AV3" s="20">
+      <c r="AV3" s="23">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="AW3" s="21">
-        <v>44623.450219907398</v>
-      </c>
-      <c r="AX3" s="21">
-        <v>44623.450636574104</v>
-      </c>
-      <c r="AY3" s="23">
+      <c r="AW3" s="26">
+        <v>44623.4502199074</v>
+      </c>
+      <c r="AX3" s="26">
+        <v>44623.4506365741</v>
+      </c>
+      <c r="AY3" s="27">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="4" ht="17" spans="1:51">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1370,76 +1947,76 @@
         <v>94827709</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M4">
         <v>15048680168</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R4">
         <v>50000</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="10">
         <v>14</v>
       </c>
       <c r="T4" s="1">
         <v>30</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W4" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="X4" s="28" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="Y4" s="1">
-        <v>3114.5030000000002</v>
+        <v>3114.503</v>
       </c>
       <c r="Z4" s="1">
-        <v>1068.9059999999999</v>
+        <v>1068.906</v>
       </c>
       <c r="AA4" s="1">
         <v>1160.298</v>
@@ -1448,12 +2025,12 @@
         <v>885.298</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AD4" s="1">
         <v>3</v>
       </c>
-      <c r="AE4" s="13" t="str">
+      <c r="AE4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>0.001</v>
       </c>
@@ -1488,40 +2065,40 @@
         <v>0.76</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AS4" s="5">
-        <v>0.16800000000000001</v>
+        <v>0.168</v>
       </c>
       <c r="AT4" s="5">
         <v>0.18</v>
       </c>
-      <c r="AU4" s="19">
+      <c r="AU4" s="22">
         <f t="shared" si="1"/>
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="AV4" s="20">
+        <v>0.174</v>
+      </c>
+      <c r="AV4" s="23">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
-      <c r="AW4" s="21">
+      <c r="AW4" s="26">
         <v>44623.4510069444</v>
       </c>
-      <c r="AX4" s="21">
-        <v>44623.450706018499</v>
-      </c>
-      <c r="AY4" s="23">
+      <c r="AX4" s="26">
+        <v>44623.4507060185</v>
+      </c>
+      <c r="AY4" s="27">
         <f t="shared" si="3"/>
         <v>-26</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="5" ht="17" spans="1:51">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1529,90 +2106,90 @@
         <v>94827707</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M5">
         <v>15048680168</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R5">
         <v>50000</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="10">
         <v>14</v>
       </c>
       <c r="T5" s="1">
         <v>30</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W5" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="X5" s="28" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="Y5" s="1">
         <v>3115.451</v>
       </c>
       <c r="Z5" s="1">
-        <v>1069.2660000000001</v>
+        <v>1069.266</v>
       </c>
       <c r="AA5" s="1">
-        <v>1160.6890000000001</v>
+        <v>1160.689</v>
       </c>
       <c r="AB5" s="1">
-        <v>885.49599999999998</v>
+        <v>885.496</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AD5" s="1">
         <v>3</v>
       </c>
-      <c r="AE5" s="13" t="str">
+      <c r="AE5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>0.000</v>
       </c>
@@ -1647,40 +2224,40 @@
         <v>0.74</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AS5" s="5">
-        <v>0.16800000000000001</v>
+        <v>0.168</v>
       </c>
       <c r="AT5" s="5">
         <v>0.185</v>
       </c>
-      <c r="AU5" s="19">
+      <c r="AU5" s="22">
         <f t="shared" si="1"/>
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="AV5" s="20">
+        <v>0.177</v>
+      </c>
+      <c r="AV5" s="23">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
-      <c r="AW5" s="21">
-        <v>44623.451701388898</v>
-      </c>
-      <c r="AX5" s="21">
-        <v>44623.452060185198</v>
-      </c>
-      <c r="AY5" s="23">
+      <c r="AW5" s="26">
+        <v>44623.4517013889</v>
+      </c>
+      <c r="AX5" s="26">
+        <v>44623.4520601852</v>
+      </c>
+      <c r="AY5" s="27">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="6" ht="17" spans="1:51">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1688,90 +2265,90 @@
         <v>94827705</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M6">
         <v>15048680168</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R6">
         <v>50000</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="10">
         <v>14</v>
       </c>
       <c r="T6" s="1">
         <v>30</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W6" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="X6" s="28" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="Y6" s="1">
-        <v>6399.3109999999997</v>
+        <v>6399.311</v>
       </c>
       <c r="Z6" s="1">
-        <v>2178.5070000000001</v>
+        <v>2178.507</v>
       </c>
       <c r="AA6" s="1">
-        <v>2397.1289999999999</v>
+        <v>2397.129</v>
       </c>
       <c r="AB6" s="1">
         <v>1823.675</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AD6" s="1">
         <v>3</v>
       </c>
-      <c r="AE6" s="13" t="str">
+      <c r="AE6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>0.000</v>
       </c>
@@ -1785,13 +2362,13 @@
         <v>59.92</v>
       </c>
       <c r="AI6">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AJ6">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AK6">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AL6" s="3">
         <v>48.26</v>
@@ -1806,40 +2383,40 @@
         <v>0.67</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AS6" s="5">
-        <v>7.3999999999999996E-2</v>
+        <v>0.074</v>
       </c>
       <c r="AT6" s="5">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="AU6" s="19">
+        <v>0.041</v>
+      </c>
+      <c r="AU6" s="22">
         <f t="shared" si="1"/>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="AV6" s="20">
+        <v>0.058</v>
+      </c>
+      <c r="AV6" s="23">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
-      <c r="AW6" s="21">
-        <v>44623.452337962997</v>
-      </c>
-      <c r="AX6" s="21">
-        <v>44623.452106481498</v>
-      </c>
-      <c r="AY6" s="23">
+      <c r="AW6" s="26">
+        <v>44623.452337963</v>
+      </c>
+      <c r="AX6" s="26">
+        <v>44623.4521064815</v>
+      </c>
+      <c r="AY6" s="27">
         <f t="shared" si="3"/>
         <v>-20</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="7" ht="17" spans="1:51">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1847,76 +2424,76 @@
         <v>94827710</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M7">
         <v>15048680168</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R7">
         <v>50000</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S7" s="10">
         <v>14</v>
       </c>
       <c r="T7" s="1">
         <v>30</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W7" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="X7" s="28" t="s">
-        <v>94</v>
+        <v>65</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="Y7" s="1">
         <v>7101.94</v>
       </c>
       <c r="Z7" s="1">
-        <v>2414.6219999999998</v>
+        <v>2414.622</v>
       </c>
       <c r="AA7" s="1">
         <v>2653.672</v>
@@ -1925,12 +2502,12 @@
         <v>2033.645</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AD7" s="1">
         <v>3</v>
       </c>
-      <c r="AE7" s="13" t="str">
+      <c r="AE7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>0.001</v>
       </c>
@@ -1959,49 +2536,48 @@
         <v>43.25</v>
       </c>
       <c r="AN7" s="3">
-        <v>40.479999999999997</v>
+        <v>40.48</v>
       </c>
       <c r="AO7" s="4">
         <v>0.74</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AS7" s="5">
-        <v>0.16500000000000001</v>
+        <v>0.165</v>
       </c>
       <c r="AT7" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="AU7" s="19">
+        <v>0.167</v>
+      </c>
+      <c r="AU7" s="22">
         <f t="shared" si="1"/>
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="AV7" s="20">
+        <v>0.166</v>
+      </c>
+      <c r="AV7" s="23">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
-      <c r="AW7" s="21">
-        <v>44623.453807870399</v>
-      </c>
-      <c r="AX7" s="21">
+      <c r="AW7" s="26">
+        <v>44623.4538078704</v>
+      </c>
+      <c r="AX7" s="26">
         <v>44623.4543865741</v>
       </c>
-      <c r="AY7" s="23">
+      <c r="AY7" s="27">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75138888888888899" bottom="0.75138888888888899" header="0.29861111111111099" footer="0.29861111111111099"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C第 &amp;P 页，共 &amp;N 页</oddHeader>
   </headerFooter>
@@ -2009,29 +2585,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>